--- a/medicine/Psychotrope/Y_grenoblois/Y_grenoblois.xlsx
+++ b/medicine/Psychotrope/Y_grenoblois/Y_grenoblois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’Y grenoblois est un territoire qui doit son nom à la figure en forme de Y que dessinent les vallées urbanisées de l’Isère, avec la cluse de Voreppe et le Grésivaudan, et du Drac. Il est entouré par les massifs de Chartreuse, de Belledonne et du Vercors. 
@@ -512,7 +524,9 @@
           <t>Un territoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L’Y grenoblois est composé de 117 communes réparties dans la métropole de Grenoble, le Voironnais, le Grésivaudan, ainsi que certaines communes non rattachées à des communautés de communes.
 L’Y grenoblois regroupe également trois types d'espaces agricoles caractéristiques :
@@ -546,7 +560,9 @@
           <t>Un vignoble</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Y grenoblois est enfin un vignoble du Grésivaudan, qui s'étend dans le sillon alpin entre le massif de la Chartreuse et la chaîne de Belledonne, c’est-à-dire, depuis Voiron jusqu'à Chapareillan. Vignoble très étendu au Moyen Âge il occupe aujourd'hui seulement 180 hectares en grande partie classés en vignoble des Abymes (commune de Chapareillan), le reste étant classé en vins de pays des coteaux du Grésivaudan sur les communes de Saint-Ismier, de Bernin et de Barraux.
 Depuis 1987 existe l'association pour le développement de l'agriculture dans l'Y grenoblois (ADAYG).
@@ -579,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
